--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipD\InputData\hydgn\RHPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/hydgn/rhpf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E258A07-7DEC-7743-83F9-953F99615F07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -132,6 +133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,19 +413,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="6">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -431,42 +436,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -478,7 +483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -488,13 +493,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="6" width="16.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="6" width="16.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -514,7 +519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -534,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -554,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -574,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -594,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>

--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/hydgn/rhpf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/rhpf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E258A07-7DEC-7743-83F9-953F99615F07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368616F3-7891-2B41-937F-991A6A977680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/rhpf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipD\InputData\hydgn\RHPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368616F3-7891-2B41-937F-991A6A977680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -133,7 +132,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,22 +411,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -436,42 +431,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -483,7 +478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -493,13 +488,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="6" width="16.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="6" width="16.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -519,7 +514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -539,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -559,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -579,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -599,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>

--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\RHPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\RHPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A9850-5F0F-4A58-A99B-88A53A89616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AD650-2600-4FD9-8DF7-DB8CE20BF1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>biomass gasification</t>
   </si>
   <si>
-    <t>thermochemical water splitting</t>
-  </si>
-  <si>
     <t>To type (below)  / From type (right)</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>electrolysis that is guaranteed to be supplied by new clean electricity sources.</t>
+  </si>
+  <si>
+    <t>hydrocarbon partial oxidation</t>
   </si>
 </sst>
 </file>
@@ -427,14 +427,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -442,44 +442,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -496,19 +496,19 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="6" width="16.5703125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.26953125" customWidth="1"/>
+    <col min="2" max="6" width="16.54296875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -523,16 +523,16 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -636,9 +636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -662,9 +662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -688,9 +688,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>

--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\RHPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us-analysis\InputData\hydgn\RHPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AD650-2600-4FD9-8DF7-DB8CE20BF1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1478245-B807-4A93-BAF7-1640A9071B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33870" yWindow="2820" windowWidth="19185" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RHPF" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="3" r:id="rId2"/>
+    <sheet name="RHPF" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>RHPF Recipient Hydrogen Pathway Fractions</t>
   </si>
@@ -52,9 +64,6 @@
     <t>data.</t>
   </si>
   <si>
-    <t>For the U.S. model, it is configured to shift all pathways to</t>
-  </si>
-  <si>
     <t>electrolysis</t>
   </si>
   <si>
@@ -79,17 +88,59 @@
     <t>natural gas reforming with CCS</t>
   </si>
   <si>
-    <t>electrolysis that is guaranteed to be supplied by new clean electricity sources.</t>
-  </si>
-  <si>
     <t>hydrocarbon partial oxidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This file is an alternate set of data, which can be enabled by a boolean </t>
+  </si>
+  <si>
+    <t>lever set by the user.</t>
+  </si>
+  <si>
+    <t>For the U.S. model, it is configured to represent a freezing of the hydrogen tax credits</t>
+  </si>
+  <si>
+    <t>passed under the Inflation Reduction Act at 2025 levels.</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Hydrogen Produced by Pathway[electrolysis] : test</t>
+  </si>
+  <si>
+    <t>Hydrogen Produced by Pathway[natural gas reforming] : test</t>
+  </si>
+  <si>
+    <t>Hydrogen Produced by Pathway[coal gasification] : test</t>
+  </si>
+  <si>
+    <t>Hydrogen Produced by Pathway[biomass gasification] : test</t>
+  </si>
+  <si>
+    <t>Hydrogen Produced by Pathway[hydrocarbon partial oxidation] : test</t>
+  </si>
+  <si>
+    <t>Hydrogen Produced by Pathway[electrolysis with guaranteed clean electricity] : test</t>
+  </si>
+  <si>
+    <t>Hydrogen Produced by Pathway[natural gas reforming with CCS] : test</t>
+  </si>
+  <si>
+    <t>BAU H2 production by pathway</t>
+  </si>
+  <si>
+    <t>2025 share:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +150,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,10 +181,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,9 +200,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,17 +534,27 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -489,14 +564,865 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86288F7A-D366-435F-8286-B7A95D440302}">
+  <dimension ref="B1:AF19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="77.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <v>2024</v>
+      </c>
+      <c r="G2">
+        <v>2025</v>
+      </c>
+      <c r="H2">
+        <v>2026</v>
+      </c>
+      <c r="I2">
+        <v>2027</v>
+      </c>
+      <c r="J2">
+        <v>2028</v>
+      </c>
+      <c r="K2">
+        <v>2029</v>
+      </c>
+      <c r="L2">
+        <v>2030</v>
+      </c>
+      <c r="M2">
+        <v>2031</v>
+      </c>
+      <c r="N2">
+        <v>2032</v>
+      </c>
+      <c r="O2">
+        <v>2033</v>
+      </c>
+      <c r="P2">
+        <v>2034</v>
+      </c>
+      <c r="Q2">
+        <v>2035</v>
+      </c>
+      <c r="R2">
+        <v>2036</v>
+      </c>
+      <c r="S2">
+        <v>2037</v>
+      </c>
+      <c r="T2">
+        <v>2038</v>
+      </c>
+      <c r="U2">
+        <v>2039</v>
+      </c>
+      <c r="V2">
+        <v>2040</v>
+      </c>
+      <c r="W2">
+        <v>2041</v>
+      </c>
+      <c r="X2">
+        <v>2042</v>
+      </c>
+      <c r="Y2">
+        <v>2043</v>
+      </c>
+      <c r="Z2">
+        <v>2044</v>
+      </c>
+      <c r="AA2">
+        <v>2045</v>
+      </c>
+      <c r="AB2">
+        <v>2046</v>
+      </c>
+      <c r="AC2">
+        <v>2047</v>
+      </c>
+      <c r="AD2">
+        <v>2048</v>
+      </c>
+      <c r="AE2">
+        <v>2049</v>
+      </c>
+      <c r="AF2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>36329200000000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>37570000000000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>37486700000000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>36928300000000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>36741600000000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>36808500000000</v>
+      </c>
+      <c r="I3" s="6">
+        <v>36974600000000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>37117800000000</v>
+      </c>
+      <c r="K3" s="6">
+        <v>36948200000000</v>
+      </c>
+      <c r="L3" s="6">
+        <v>36973500000000</v>
+      </c>
+      <c r="M3" s="6">
+        <v>36918800000000</v>
+      </c>
+      <c r="N3" s="6">
+        <v>36958800000000</v>
+      </c>
+      <c r="O3" s="6">
+        <v>36756000000000</v>
+      </c>
+      <c r="P3" s="6">
+        <v>36630500000000</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>36641700000000</v>
+      </c>
+      <c r="R3" s="6">
+        <v>36537900000000</v>
+      </c>
+      <c r="S3" s="6">
+        <v>36406100000000</v>
+      </c>
+      <c r="T3" s="6">
+        <v>36264500000000</v>
+      </c>
+      <c r="U3" s="6">
+        <v>36195300000000</v>
+      </c>
+      <c r="V3" s="6">
+        <v>36212600000000</v>
+      </c>
+      <c r="W3" s="6">
+        <v>36254700000000</v>
+      </c>
+      <c r="X3" s="6">
+        <v>36408000000000</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>36267200000000</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>36128900000000</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>35866000000000</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>35894700000000</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>35850800000000</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>35972100000000</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>36092600000000</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>36169200000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6">
+        <v>690256000000000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>713830000000000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>712247000000000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>638120000000000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>571699000000000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>509430000000000</v>
+      </c>
+      <c r="I4" s="6">
+        <v>448132000000000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>380086000000000</v>
+      </c>
+      <c r="K4" s="6">
+        <v>314798000000000</v>
+      </c>
+      <c r="L4" s="6">
+        <v>251420000000000</v>
+      </c>
+      <c r="M4" s="6">
+        <v>187547000000000</v>
+      </c>
+      <c r="N4" s="6">
+        <v>124181000000000</v>
+      </c>
+      <c r="O4" s="6">
+        <v>123500000000000</v>
+      </c>
+      <c r="P4" s="6">
+        <v>123079000000000</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>123116000000000</v>
+      </c>
+      <c r="R4" s="6">
+        <v>122767000000000</v>
+      </c>
+      <c r="S4" s="6">
+        <v>122325000000000</v>
+      </c>
+      <c r="T4" s="6">
+        <v>121849000000000</v>
+      </c>
+      <c r="U4" s="6">
+        <v>121616000000000</v>
+      </c>
+      <c r="V4" s="6">
+        <v>121674000000000</v>
+      </c>
+      <c r="W4" s="6">
+        <v>121816000000000</v>
+      </c>
+      <c r="X4" s="6">
+        <v>122331000000000</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>121858000000000</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>121393000000000</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>120510000000000</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>120606000000000</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>120459000000000</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>120866000000000</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>121271000000000</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>121529000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>63516600000000</v>
+      </c>
+      <c r="G8" s="6">
+        <v>126391000000000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>189932000000000</v>
+      </c>
+      <c r="I8" s="6">
+        <v>254385000000000</v>
+      </c>
+      <c r="J8" s="6">
+        <v>325152000000000</v>
+      </c>
+      <c r="K8" s="6">
+        <v>387217000000000</v>
+      </c>
+      <c r="L8" s="6">
+        <v>451077000000000</v>
+      </c>
+      <c r="M8" s="6">
+        <v>513909000000000</v>
+      </c>
+      <c r="N8" s="6">
+        <v>578035000000000</v>
+      </c>
+      <c r="O8" s="6">
+        <v>574864000000000</v>
+      </c>
+      <c r="P8" s="6">
+        <v>572901000000000</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>573076000000000</v>
+      </c>
+      <c r="R8" s="6">
+        <v>571452000000000</v>
+      </c>
+      <c r="S8" s="6">
+        <v>569392000000000</v>
+      </c>
+      <c r="T8" s="6">
+        <v>567177000000000</v>
+      </c>
+      <c r="U8" s="6">
+        <v>566095000000000</v>
+      </c>
+      <c r="V8" s="6">
+        <v>566366000000000</v>
+      </c>
+      <c r="W8" s="6">
+        <v>567024000000000</v>
+      </c>
+      <c r="X8" s="6">
+        <v>569421000000000</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>567219000000000</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>565055000000000</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>560945000000000</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>561394000000000</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>560707000000000</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>562604000000000</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>564488000000000</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>565687000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7">
+        <f>G3/SUM($G$3:$G$9)</f>
+        <v>5.000002721712022E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:C19" si="0">G4/SUM($G$3:$G$9)</f>
+        <v>0.7780000206850114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.17199995209786842</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,209 +1434,258 @@
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
+        <f>Calculations!$C13</f>
+        <v>5.000002721712022E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <f>Calculations!$C13</f>
+        <v>5.000002721712022E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <f>Calculations!$C13</f>
+        <v>5.000002721712022E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>Calculations!$C13</f>
+        <v>5.000002721712022E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <f>Calculations!$C13</f>
+        <v>5.000002721712022E-2</v>
+      </c>
+      <c r="G2" s="8">
+        <f>Calculations!$C13</f>
+        <v>5.000002721712022E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <f>Calculations!$C13</f>
+        <v>5.000002721712022E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <f>Calculations!$C14</f>
+        <v>0.7780000206850114</v>
+      </c>
+      <c r="C3" s="8">
+        <f>Calculations!$C14</f>
+        <v>0.7780000206850114</v>
+      </c>
+      <c r="D3" s="8">
+        <f>Calculations!$C14</f>
+        <v>0.7780000206850114</v>
+      </c>
+      <c r="E3" s="8">
+        <f>Calculations!$C14</f>
+        <v>0.7780000206850114</v>
+      </c>
+      <c r="F3" s="8">
+        <f>Calculations!$C14</f>
+        <v>0.7780000206850114</v>
+      </c>
+      <c r="G3" s="8">
+        <f>Calculations!$C14</f>
+        <v>0.7780000206850114</v>
+      </c>
+      <c r="H3" s="8">
+        <f>Calculations!$C14</f>
+        <v>0.7780000206850114</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <f>Calculations!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <f>Calculations!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <f>Calculations!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <f>Calculations!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <f>Calculations!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <f>Calculations!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f>Calculations!$C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
+        <f>Calculations!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <f>Calculations!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>Calculations!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <f>Calculations!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f>Calculations!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <f>Calculations!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <f>Calculations!$C16</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
+        <f>Calculations!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <f>Calculations!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <f>Calculations!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <f>Calculations!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f>Calculations!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f>Calculations!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <f>Calculations!$C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <f>Calculations!$C18</f>
+        <v>0.17199995209786842</v>
+      </c>
+      <c r="C7" s="8">
+        <f>Calculations!$C18</f>
+        <v>0.17199995209786842</v>
+      </c>
+      <c r="D7" s="8">
+        <f>Calculations!$C18</f>
+        <v>0.17199995209786842</v>
+      </c>
+      <c r="E7" s="8">
+        <f>Calculations!$C18</f>
+        <v>0.17199995209786842</v>
+      </c>
+      <c r="F7" s="8">
+        <f>Calculations!$C18</f>
+        <v>0.17199995209786842</v>
+      </c>
+      <c r="G7" s="8">
+        <f>Calculations!$C18</f>
+        <v>0.17199995209786842</v>
+      </c>
+      <c r="H7" s="8">
+        <f>Calculations!$C18</f>
+        <v>0.17199995209786842</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <f>Calculations!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <f>Calculations!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <f>Calculations!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <f>Calculations!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f>Calculations!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>Calculations!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <f>Calculations!$C19</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
+++ b/InputData/hydgn/RHPF/Recipient Hydrogen Pathway Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\RHPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\hydgn\RHPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AD650-2600-4FD9-8DF7-DB8CE20BF1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AA43F9-77A7-447F-8C44-DDD7DF7C76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>natural gas reforming with CCS</t>
   </si>
   <si>
-    <t>electrolysis that is guaranteed to be supplied by new clean electricity sources.</t>
-  </si>
-  <si>
     <t>hydrocarbon partial oxidation</t>
+  </si>
+  <si>
+    <t>steam methane reforming.</t>
   </si>
 </sst>
 </file>
@@ -427,14 +427,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -442,42 +442,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -496,17 +496,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" customWidth="1"/>
-    <col min="2" max="6" width="16.54296875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="6" width="16.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
@@ -532,7 +532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -558,33 +558,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -636,9 +636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -662,33 +662,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
